--- a/A4_testing.xlsx
+++ b/A4_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a8b16d2a01cc752/Documents/MIT/2024 Spring/6.C85 Data Visualization ^0 Society/A4_Lizzy_Salata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6B7BEED7-0F0B-4934-8F2C-40495C072EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD24126-91B5-47C8-9080-535E3F99EE05}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6B7BEED7-0F0B-4934-8F2C-40495C072EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB22BDE-4AC3-45C6-91BC-1C60FF51FDED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A5FE048D-AD5B-45A9-AF7D-DD257EFF87A6}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="541">
   <si>
     <t>Aruba</t>
   </si>
@@ -1656,6 +1657,9 @@
   </si>
   <si>
     <t>life expectancy at birth</t>
+  </si>
+  <si>
+    <t>Death Rate per 1000</t>
   </si>
 </sst>
 </file>
@@ -2009,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAAA502-B3EE-4E2B-88AF-64E1B7EBCB6B}">
   <dimension ref="A2:BM268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9435,15 +9439,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C178123-69BE-46A3-A0CF-99F41739569D}">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>534</v>
       </c>
@@ -9456,8 +9460,11 @@
       <c r="D1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9467,8 +9474,11 @@
       <c r="D2">
         <v>76.152000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>9.0530000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9481,8 +9491,11 @@
       <c r="D3">
         <v>63.648988039777002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>7.5214530393236601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9495,8 +9508,11 @@
       <c r="D4">
         <v>64.486000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>6.423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9509,8 +9525,11 @@
       <c r="D5">
         <v>57.762346786776298</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>10.166491617487999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9523,8 +9542,11 @@
       <c r="D6">
         <v>60.781999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -9537,8 +9559,11 @@
       <c r="D7">
         <v>78.457999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>7.8979999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -9548,8 +9573,11 @@
       <c r="C8">
         <v>11.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -9562,8 +9590,11 @@
       <c r="D9">
         <v>71.807075107542204</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>5.3802880786971796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -9576,8 +9607,11 @@
       <c r="D10">
         <v>77.813999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -9590,8 +9624,11 @@
       <c r="D11">
         <v>76.52</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>7.609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -9604,8 +9641,11 @@
       <c r="D12">
         <v>74.944999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>9.8569999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -9613,7 +9653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -9626,8 +9666,11 @@
       <c r="D14">
         <v>76.885000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>6.3659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -9640,8 +9683,11 @@
       <c r="D15">
         <v>82.748780487804893</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -9654,8 +9700,11 @@
       <c r="D16">
         <v>81.692682926829306</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -9668,8 +9717,11 @@
       <c r="D17">
         <v>72.864000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -9682,8 +9734,11 @@
       <c r="D18">
         <v>61.247</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>7.9290000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -9696,8 +9751,11 @@
       <c r="D19">
         <v>81.595121951219497</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -9710,8 +9768,11 @@
       <c r="D20">
         <v>61.47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>8.8710000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -9724,8 +9785,11 @@
       <c r="D21">
         <v>61.173999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>8.1240000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -9738,8 +9802,11 @@
       <c r="D22">
         <v>72.319999999999993</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>5.5289999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9752,8 +9819,11 @@
       <c r="D23">
         <v>74.963414634146403</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -9766,8 +9836,11 @@
       <c r="D24">
         <v>77.162999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>2.3849999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -9780,8 +9853,11 @@
       <c r="D25">
         <v>73.751999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>6.7709999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -9794,8 +9870,11 @@
       <c r="D26">
         <v>77.262</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>10.712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -9808,8 +9887,11 @@
       <c r="D27">
         <v>74.1756097560976</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -9822,8 +9904,11 @@
       <c r="D28">
         <v>74.495999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>4.7160000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -9833,8 +9918,11 @@
       <c r="D29">
         <v>81.651707317073203</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -9847,8 +9935,11 @@
       <c r="D30">
         <v>71.239000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>6.7720000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -9861,8 +9952,11 @@
       <c r="D31">
         <v>75.671999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>6.452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -9875,8 +9969,11 @@
       <c r="D32">
         <v>79.081000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>9.0039999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -9889,8 +9986,11 @@
       <c r="D33">
         <v>75.721999999999994</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>4.4450000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -9903,8 +10003,11 @@
       <c r="D34">
         <v>71.459999999999994</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>6.2450000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -9917,8 +10020,11 @@
       <c r="D35">
         <v>69.275000000000006</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>5.742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -9931,8 +10037,11 @@
       <c r="D36">
         <v>52.805</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>12.289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -9945,8 +10054,11 @@
       <c r="D37">
         <v>82.048780487804905</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -9959,8 +10071,11 @@
       <c r="D38">
         <v>76.976822681840204</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>12.1174003213682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -9973,8 +10088,11 @@
       <c r="D39">
         <v>83.753658536585405</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -9984,8 +10102,11 @@
       <c r="D40">
         <v>82.927999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>7.8140000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -9998,8 +10119,11 @@
       <c r="D41">
         <v>80.042000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>6.1630000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -10012,8 +10136,11 @@
       <c r="D42">
         <v>76.703999999999994</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -10026,8 +10153,11 @@
       <c r="D43">
         <v>57.421999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>10.053000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -10040,8 +10170,11 @@
       <c r="D44">
         <v>58.920999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>9.266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -10054,8 +10187,11 @@
       <c r="D45">
         <v>60.368000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>9.4819999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -10068,8 +10204,11 @@
       <c r="D46">
         <v>64.290000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>6.7050000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -10082,8 +10221,11 @@
       <c r="D47">
         <v>77.108999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>5.5620000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -10096,8 +10238,11 @@
       <c r="D48">
         <v>64.117999999999995</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>7.2140000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -10110,8 +10255,11 @@
       <c r="D49">
         <v>72.781999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -10124,8 +10272,11 @@
       <c r="D50">
         <v>80.094999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>5.0780000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -10138,8 +10289,11 @@
       <c r="D51">
         <v>73.637106281043202</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>7.5894801738525901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -10152,24 +10306,33 @@
       <c r="D52">
         <v>78.725999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>8.9879999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -10182,8 +10345,11 @@
       <c r="D55">
         <v>80.828000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>7.0220000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -10196,8 +10362,11 @@
       <c r="D56">
         <v>79.0292682926829</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -10210,8 +10379,11 @@
       <c r="D57">
         <v>80.892682926829295</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -10224,8 +10396,11 @@
       <c r="D58">
         <v>66.581999999999994</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>7.1020000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -10236,7 +10411,7 @@
         <v>11.18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -10249,8 +10424,11 @@
       <c r="D60">
         <v>80.953658536585394</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -10263,8 +10441,11 @@
       <c r="D61">
         <v>73.891999999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -10277,8 +10458,11 @@
       <c r="D62">
         <v>76.692999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>4.7160000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -10291,8 +10475,11 @@
       <c r="D63">
         <v>75.210501121356003</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>6.9684883830032804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -10305,8 +10492,11 @@
       <c r="D64">
         <v>70.483238337634901</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>6.6289010318191401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -10319,8 +10509,11 @@
       <c r="D65">
         <v>76.068863916403103</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>7.1495064211542898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -10333,8 +10526,11 @@
       <c r="D66">
         <v>73.675428743257797</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>10.395788095384299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -10347,8 +10543,11 @@
       <c r="D67">
         <v>77.910152577432697</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>10.219199399586699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -10361,8 +10560,11 @@
       <c r="D68">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>5.109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -10375,8 +10577,11 @@
       <c r="D69">
         <v>71.825000000000003</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>5.8170000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -10389,8 +10594,11 @@
       <c r="D70">
         <v>82.059881695948206</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>10.1383266659945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -10403,8 +10611,11 @@
       <c r="D71">
         <v>65.941000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>7.1630000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -10417,8 +10628,11 @@
       <c r="D72">
         <v>83.431707317073204</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -10431,8 +10645,11 @@
       <c r="D73">
         <v>78.243902439024396</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -10445,8 +10662,11 @@
       <c r="D74">
         <v>66.239999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>6.5510000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -10459,8 +10679,11 @@
       <c r="D75">
         <v>81.0349054643915</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>10.512264426072299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -10473,8 +10696,11 @@
       <c r="D76">
         <v>62.1942490425375</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>8.5960590585639896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -10487,8 +10713,11 @@
       <c r="D77">
         <v>81.734146341463401</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -10501,8 +10730,11 @@
       <c r="D78">
         <v>67.340999999999994</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>8.2080000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -10515,8 +10747,11 @@
       <c r="D79">
         <v>82.724390243902405</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -10526,8 +10761,11 @@
       <c r="D80">
         <v>82.495121951219502</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -10540,8 +10778,11 @@
       <c r="D81">
         <v>67.754999999999995</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>6.5640000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -10554,8 +10795,11 @@
       <c r="D82">
         <v>66.186999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>6.8330000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -10568,8 +10812,11 @@
       <c r="D83">
         <v>81.256097560975604</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -10582,8 +10829,11 @@
       <c r="D84">
         <v>73.599999999999994</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>12.849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -10596,8 +10846,11 @@
       <c r="D85">
         <v>63.78</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>7.3090000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -10605,7 +10858,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -10618,8 +10871,11 @@
       <c r="D87">
         <v>61.185000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>8.452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -10632,8 +10888,11 @@
       <c r="D88">
         <v>61.734999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>7.8869999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -10646,8 +10905,11 @@
       <c r="D89">
         <v>58.003</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>9.6120000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -10660,8 +10922,11 @@
       <c r="D90">
         <v>58.402000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>9.3230000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -10674,8 +10939,11 @@
       <c r="D91">
         <v>81.787804878048803</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -10688,16 +10956,22 @@
       <c r="D92">
         <v>72.384</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>9.5760000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>184</v>
       </c>
       <c r="B93" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -10710,8 +10984,11 @@
       <c r="D94">
         <v>74.063000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>4.7380000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -10721,8 +10998,11 @@
       <c r="D95">
         <v>79.858999999999995</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>5.2160000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -10735,8 +11015,11 @@
       <c r="D96">
         <v>69.774000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>7.4560000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -10749,8 +11032,11 @@
       <c r="D97">
         <v>80.787339762866097</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>8.8884557280691503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -10760,8 +11046,11 @@
       <c r="D98">
         <v>84.934146341463403</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -10774,8 +11063,11 @@
       <c r="D99">
         <v>75.087999999999994</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>4.4370000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -10788,8 +11080,11 @@
       <c r="D100">
         <v>63.134991156130098</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>7.7006608993181702</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -10802,8 +11097,11 @@
       <c r="D101">
         <v>78.070731707317094</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -10816,8 +11114,11 @@
       <c r="D102">
         <v>63.66</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>8.5340000000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -10830,8 +11131,11 @@
       <c r="D103">
         <v>76.065853658536597</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -10844,8 +11148,11 @@
       <c r="D104">
         <v>73.405002995835702</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>7.2017554446115701</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -10858,8 +11165,11 @@
       <c r="D105">
         <v>71.071883579646098</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>7.3218529879538403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -10872,8 +11182,11 @@
       <c r="D106">
         <v>64.248179766274603</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>7.6731051061706799</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -10886,8 +11199,11 @@
       <c r="D107">
         <v>62.161867386443298</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>8.5604906854877907</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -10900,8 +11216,11 @@
       <c r="D108">
         <v>71.509</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>6.4649999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -10914,8 +11233,11 @@
       <c r="D109">
         <v>65.304562034606505</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>7.2237867777045004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -10923,7 +11245,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -10936,8 +11258,11 @@
       <c r="D111">
         <v>69.415999999999997</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>7.234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -10945,7 +11270,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -10958,8 +11283,11 @@
       <c r="D113">
         <v>82.256097560975604</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -10972,8 +11300,11 @@
       <c r="D114">
         <v>76.478999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>4.843</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -10986,8 +11317,11 @@
       <c r="D115">
         <v>70.453999999999994</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>4.7759999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -11000,8 +11334,11 @@
       <c r="D116">
         <v>82.860975609756096</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -11014,8 +11351,11 @@
       <c r="D117">
         <v>82.802439024390296</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -11028,8 +11368,11 @@
       <c r="D118">
         <v>83.346341463414603</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -11042,8 +11385,11 @@
       <c r="D119">
         <v>74.367999999999995</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>7.5730000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -11056,8 +11402,11 @@
       <c r="D120">
         <v>74.405000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>3.8639999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -11070,8 +11419,11 @@
       <c r="D121">
         <v>84.210975609756105</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -11084,8 +11436,11 @@
       <c r="D122">
         <v>73.150000000000006</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -11098,8 +11453,11 @@
       <c r="D123">
         <v>66.341999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>5.4690000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -11112,8 +11470,11 @@
       <c r="D124">
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -11126,8 +11487,11 @@
       <c r="D125">
         <v>69.569999999999993</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>5.9969999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -11140,8 +11504,11 @@
       <c r="D126">
         <v>68.116</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>6.3289999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -11152,7 +11519,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -11165,8 +11532,11 @@
       <c r="D128">
         <v>82.626829268292695</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -11179,8 +11549,11 @@
       <c r="D129">
         <v>75.397999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>2.6960000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -11193,8 +11566,11 @@
       <c r="D130">
         <v>75.422501369851105</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>6.2521942799733301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -11207,8 +11583,11 @@
       <c r="D131">
         <v>67.61</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>6.4340000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -11221,8 +11600,11 @@
       <c r="D132">
         <v>78.875</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>4.3559999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -11235,8 +11617,11 @@
       <c r="D133">
         <v>63.73</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>7.5380000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -11249,8 +11634,11 @@
       <c r="D134">
         <v>72.724000000000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>5.0949999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -11263,8 +11651,11 @@
       <c r="D135">
         <v>76.057000000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>7.2050000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -11277,8 +11668,11 @@
       <c r="D136">
         <v>75.440849404477206</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>6.3209842016856097</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -11291,8 +11685,11 @@
       <c r="D137">
         <v>65.0398012378038</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>7.2874728937867896</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -11305,8 +11702,11 @@
       <c r="D138">
         <v>63.387499383988398</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>7.7965198710750299</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -11316,8 +11716,11 @@
       <c r="D139">
         <v>83.041463414634194</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -11330,8 +11733,11 @@
       <c r="D140">
         <v>76.811999999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <v>6.6509999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -11344,8 +11750,11 @@
       <c r="D141">
         <v>68.869637153174494</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>7.1632170431539199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -11358,8 +11767,11 @@
       <c r="D142">
         <v>71.012687332686397</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <v>7.3077468959491396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -11372,8 +11784,11 @@
       <c r="D143">
         <v>53.704999999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <v>14.246</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -11386,8 +11801,11 @@
       <c r="D144">
         <v>76.224783526461195</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <v>7.4809248576704404</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -11400,8 +11818,11 @@
       <c r="D145">
         <v>75.680487804878098</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -11414,8 +11835,11 @@
       <c r="D146">
         <v>82.2951219512195</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -11428,8 +11852,11 @@
       <c r="D147">
         <v>74.782926829268305</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -11439,8 +11866,11 @@
       <c r="D148">
         <v>84.117999999999995</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>3.9390000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -11450,8 +11880,11 @@
       <c r="D149">
         <v>79.821951219512201</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -11464,16 +11897,22 @@
       <c r="D150">
         <v>76.453000000000003</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>300</v>
       </c>
       <c r="B151" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -11486,8 +11925,11 @@
       <c r="D152">
         <v>71.808000000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -11500,8 +11942,11 @@
       <c r="D153">
         <v>66.680999999999997</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>6.0549999999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -11514,8 +11959,11 @@
       <c r="D154">
         <v>78.626999999999995</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>2.8140000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -11528,8 +11976,11 @@
       <c r="D155">
         <v>74.088833089778902</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>4.9044940348447401</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -11542,8 +11993,11 @@
       <c r="D156">
         <v>74.992000000000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -11551,7 +12005,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -11564,8 +12018,11 @@
       <c r="D158">
         <v>71.853127765024396</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>7.2538748375430098</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -11578,8 +12035,11 @@
       <c r="D159">
         <v>75.688000000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>10.051</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -11592,8 +12052,11 @@
       <c r="D160">
         <v>58.893000000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>9.6859999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -11606,8 +12069,11 @@
       <c r="D161">
         <v>82.448780487804896</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -11620,8 +12086,11 @@
       <c r="D162">
         <v>66.867000000000004</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>8.1989999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -11634,8 +12103,11 @@
       <c r="D163">
         <v>73.587338703791403</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>5.2035210275018997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -11648,8 +12120,11 @@
       <c r="D164">
         <v>76.77</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>10.682</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -11662,8 +12137,11 @@
       <c r="D165">
         <v>69.688999999999993</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>6.3159999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -11671,7 +12149,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -11684,8 +12162,11 @@
       <c r="D167">
         <v>60.162999999999997</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>8.5440000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -11698,8 +12179,11 @@
       <c r="D168">
         <v>64.703999999999994</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>7.2220000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -11712,8 +12196,11 @@
       <c r="D169">
         <v>74.416341463414597</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -11726,8 +12213,11 @@
       <c r="D170">
         <v>63.798000000000002</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <v>6.5970000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -11740,8 +12230,11 @@
       <c r="D171">
         <v>75.997</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -11754,8 +12247,11 @@
       <c r="D172">
         <v>78.986791307117301</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>8.5783374592589805</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -11768,8 +12264,11 @@
       <c r="D173">
         <v>63.372999999999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>8.0570000000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -11779,8 +12278,11 @@
       <c r="D174">
         <v>77.434146341463403</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -11793,8 +12295,11 @@
       <c r="D175">
         <v>62.024000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>8.2680000000000007</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -11807,8 +12312,11 @@
       <c r="D176">
         <v>54.332000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -11821,8 +12329,11 @@
       <c r="D177">
         <v>74.275000000000006</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <v>5.0609999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -11835,8 +12346,11 @@
       <c r="D178">
         <v>81.812195121951206</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -11849,8 +12363,11 @@
       <c r="D179">
         <v>82.758536585365903</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -11863,8 +12380,11 @@
       <c r="D180">
         <v>70.477999999999994</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <v>6.3609999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -11875,7 +12395,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -11888,8 +12408,11 @@
       <c r="D182">
         <v>81.858536585365897</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -11902,8 +12425,11 @@
       <c r="D183">
         <v>80.104533709417495</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>8.5794670040314092</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -11916,8 +12442,11 @@
       <c r="D184">
         <v>77.632999999999996</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <v>2.4359999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -11930,8 +12459,11 @@
       <c r="D185">
         <v>68.546813390155705</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <v>7.2878540251775696</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -11944,8 +12476,11 @@
       <c r="D186">
         <v>67.114000000000004</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <v>6.9420000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -11958,8 +12493,11 @@
       <c r="D187">
         <v>78.328999999999994</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <v>5.0759999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -11972,8 +12510,11 @@
       <c r="D188">
         <v>76.516000000000005</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>5.5030000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -11986,16 +12527,22 @@
       <c r="D189">
         <v>71.094999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>5.8730000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>378</v>
       </c>
       <c r="B190" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -12008,8 +12555,11 @@
       <c r="D191">
         <v>64.263000000000005</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <v>7.4269999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -12022,8 +12572,11 @@
       <c r="D192">
         <v>77.602439024390307</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>384</v>
       </c>
@@ -12036,8 +12589,11 @@
       <c r="D193">
         <v>60.820941996665802</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <v>8.6264484864501707</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>386</v>
       </c>
@@ -12047,8 +12603,11 @@
       <c r="D194">
         <v>79.7781951219512</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <v>9.0630000000000006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -12061,8 +12620,11 @@
       <c r="D195">
         <v>72.094999999999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <v>9.0879999999999992</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>390</v>
       </c>
@@ -12075,8 +12637,11 @@
       <c r="D196">
         <v>81.3243902439024</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -12089,8 +12654,11 @@
       <c r="D197">
         <v>74.131</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <v>5.4980000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -12100,8 +12668,11 @@
       <c r="D198">
         <v>73.894999999999996</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <v>3.4609999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>396</v>
       </c>
@@ -12114,8 +12685,11 @@
       <c r="D199">
         <v>69.929048799446704</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <v>6.2940290330608697</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -12128,8 +12702,11 @@
       <c r="D200">
         <v>80.693488469429099</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200">
+        <v>9.5546442638363107</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>400</v>
       </c>
@@ -12139,8 +12716,11 @@
       <c r="D201">
         <v>77.462000000000003</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>5.649</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>402</v>
       </c>
@@ -12153,8 +12733,11 @@
       <c r="D202">
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>404</v>
       </c>
@@ -12167,8 +12750,11 @@
       <c r="D203">
         <v>75.358536585365897</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>406</v>
       </c>
@@ -12181,8 +12767,11 @@
       <c r="D204">
         <v>72.6621951219512</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -12195,8 +12784,11 @@
       <c r="D205">
         <v>68.7</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205">
+        <v>5.2080000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -12209,8 +12801,11 @@
       <c r="D206">
         <v>69.412269944030101</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <v>7.0094416304835603</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -12223,8 +12818,11 @@
       <c r="D207">
         <v>74.998000000000005</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <v>3.472</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -12237,8 +12835,11 @@
       <c r="D208">
         <v>65.094999999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208">
+        <v>7.1879999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -12251,8 +12852,11 @@
       <c r="D209">
         <v>67.665000000000006</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209">
+        <v>5.7160000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>418</v>
       </c>
@@ -12265,8 +12869,11 @@
       <c r="D210">
         <v>83.297560975609798</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>420</v>
       </c>
@@ -12279,8 +12886,11 @@
       <c r="D211">
         <v>72.834999999999994</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>4.2519999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>422</v>
       </c>
@@ -12293,8 +12903,11 @@
       <c r="D212">
         <v>54.308999999999997</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>11.744999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>424</v>
       </c>
@@ -12307,16 +12920,22 @@
       <c r="D213">
         <v>73.096000000000004</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>426</v>
       </c>
       <c r="B214" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -12329,8 +12948,11 @@
       <c r="D215">
         <v>57.067999999999998</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215">
+        <v>10.855</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>430</v>
       </c>
@@ -12343,8 +12965,11 @@
       <c r="D216">
         <v>75.890243902438996</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>432</v>
       </c>
@@ -12357,8 +12982,11 @@
       <c r="D217">
         <v>61.271994314672597</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>8.5890467410282305</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>434</v>
       </c>
@@ -12368,8 +12996,11 @@
       <c r="D218">
         <v>57.603999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <v>10.459</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>436</v>
       </c>
@@ -12382,8 +13013,11 @@
       <c r="D219">
         <v>61.273032490238002</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219">
+        <v>8.5890387505016204</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>438</v>
       </c>
@@ -12396,8 +13030,11 @@
       <c r="D220">
         <v>69.541031802594702</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220">
+        <v>7.2834484725629096</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -12410,8 +13047,11 @@
       <c r="D221">
         <v>70.17</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>4.8280000000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -12424,8 +13064,11 @@
       <c r="D222">
         <v>71.569999999999993</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222">
+        <v>7.335</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -12438,8 +13081,11 @@
       <c r="D223">
         <v>77.265853658536599</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>446</v>
       </c>
@@ -12452,8 +13098,11 @@
       <c r="D224">
         <v>81.378048780487802</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>448</v>
       </c>
@@ -12466,8 +13115,11 @@
       <c r="D225">
         <v>82.5585365853659</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>450</v>
       </c>
@@ -12480,8 +13132,11 @@
       <c r="D226">
         <v>59.401000000000003</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226">
+        <v>9.3759999999999994</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>452</v>
       </c>
@@ -12489,7 +13144,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>454</v>
       </c>
@@ -12502,8 +13157,11 @@
       <c r="D228">
         <v>72.841463414634106</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>456</v>
       </c>
@@ -12516,8 +13174,11 @@
       <c r="D229">
         <v>71.778999999999996</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229">
+        <v>5.3730000000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>458</v>
       </c>
@@ -12525,7 +13186,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -12538,8 +13199,11 @@
       <c r="D231">
         <v>53.976999999999997</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <v>12.103999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -12552,8 +13216,11 @@
       <c r="D232">
         <v>75.249217454416197</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>6.94215668497033</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -12566,8 +13233,11 @@
       <c r="D233">
         <v>74.039473803634394</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <v>10.4598066630505</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -12580,8 +13250,11 @@
       <c r="D234">
         <v>60.76</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <v>8.4459999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>468</v>
       </c>
@@ -12594,8 +13267,11 @@
       <c r="D235">
         <v>76.930999999999997</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235">
+        <v>7.6660000000000004</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>470</v>
       </c>
@@ -12608,8 +13284,11 @@
       <c r="D236">
         <v>70.879000000000005</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <v>4.8559999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>472</v>
       </c>
@@ -12622,8 +13301,11 @@
       <c r="D237">
         <v>68.072999999999993</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <v>7.0449999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>474</v>
       </c>
@@ -12636,8 +13318,11 @@
       <c r="D238">
         <v>75.357328027465201</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238">
+        <v>6.2561051073639602</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>476</v>
       </c>
@@ -12650,8 +13335,11 @@
       <c r="D239">
         <v>69.260000000000005</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239">
+        <v>5.9950000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>478</v>
       </c>
@@ -12664,8 +13352,11 @@
       <c r="D240">
         <v>73.583623632589806</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240">
+        <v>5.2245623146813402</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>480</v>
       </c>
@@ -12678,8 +13369,11 @@
       <c r="D241">
         <v>70.801000000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241">
+        <v>7.1520000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>482</v>
       </c>
@@ -12692,8 +13386,11 @@
       <c r="D242">
         <v>69.412269944030101</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242">
+        <v>7.0094416304835603</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>484</v>
       </c>
@@ -12706,8 +13403,11 @@
       <c r="D243">
         <v>61.273032490238002</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243">
+        <v>8.5890387505016204</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>486</v>
       </c>
@@ -12720,8 +13420,11 @@
       <c r="D244">
         <v>73.38</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>488</v>
       </c>
@@ -12734,8 +13437,11 @@
       <c r="D245">
         <v>76.504999999999995</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245">
+        <v>6.2619999999999996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>490</v>
       </c>
@@ -12748,8 +13454,11 @@
       <c r="D246">
         <v>77.436999999999998</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E246">
+        <v>5.4119999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>492</v>
       </c>
@@ -12760,7 +13469,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>494</v>
       </c>
@@ -12773,8 +13482,11 @@
       <c r="D248">
         <v>65.015000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248">
+        <v>6.4189999999999996</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>496</v>
       </c>
@@ -12787,8 +13499,11 @@
       <c r="D249">
         <v>62.972999999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249">
+        <v>6.5540000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>498</v>
       </c>
@@ -12801,8 +13516,11 @@
       <c r="D250">
         <v>71.582682926829307</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>500</v>
       </c>
@@ -12815,8 +13533,11 @@
       <c r="D251">
         <v>75.741121281863201</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251">
+        <v>7.3720172963916202</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -12829,8 +13550,11 @@
       <c r="D252">
         <v>77.77</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252">
+        <v>9.4670000000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>504</v>
       </c>
@@ -12843,8 +13567,11 @@
       <c r="D253">
         <v>78.639024390243904</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253">
+        <v>8.6780000000000008</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>506</v>
       </c>
@@ -12857,8 +13584,11 @@
       <c r="D254">
         <v>71.572999999999993</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>508</v>
       </c>
@@ -12871,8 +13601,11 @@
       <c r="D255">
         <v>72.415000000000006</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E255">
+        <v>9.2629999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>510</v>
       </c>
@@ -12885,8 +13618,11 @@
       <c r="D256">
         <v>72.128</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <v>6.9820000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>512</v>
       </c>
@@ -12894,7 +13630,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>514</v>
       </c>
@@ -12904,8 +13640,11 @@
       <c r="D258">
         <v>79.519512195121905</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>516</v>
       </c>
@@ -12918,8 +13657,11 @@
       <c r="D259">
         <v>75.316999999999993</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E259">
+        <v>6.3170000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>518</v>
       </c>
@@ -12932,8 +13674,11 @@
       <c r="D260">
         <v>70.322999999999993</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E260">
+        <v>5.266</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>520</v>
       </c>
@@ -12946,8 +13691,11 @@
       <c r="D261">
         <v>72.568657943452195</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261">
+        <v>7.5575233330781399</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>522</v>
       </c>
@@ -12960,8 +13708,11 @@
       <c r="D262">
         <v>73.186999999999998</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262">
+        <v>5.2389999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>524</v>
       </c>
@@ -12971,8 +13722,11 @@
       <c r="D263">
         <v>72.243902439024396</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>526</v>
       </c>
@@ -12985,8 +13739,11 @@
       <c r="D264">
         <v>66.096000000000004</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264">
+        <v>5.9829999999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>528</v>
       </c>
@@ -12999,8 +13756,11 @@
       <c r="D265">
         <v>63.856999999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265">
+        <v>9.4350000000000005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>530</v>
       </c>
@@ -13013,8 +13773,11 @@
       <c r="D266">
         <v>63.51</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266">
+        <v>6.4560000000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>532</v>
       </c>
@@ -13023,6 +13786,9 @@
       </c>
       <c r="C267">
         <v>4.67</v>
+      </c>
+      <c r="E267">
+        <v>7.883</v>
       </c>
     </row>
   </sheetData>
@@ -15909,4 +16675,2116 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D28C0E-840D-43DD-A7D9-302C5784EB2B}">
+  <dimension ref="A1:B267"/>
+  <sheetViews>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B267"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9.0530000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>7.5214530393236601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>6.423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>10.166491617487999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>7.8979999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>5.3802880786971796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>7.609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>9.8569999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>6.3659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>7.9290000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>8.8710000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>8.1240000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>5.5289999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>2.3849999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>6.7709999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>10.712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>4.7160000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>6.7720000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>6.452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>9.0039999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>4.4450000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>6.2450000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>5.742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>12.289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>12.1174003213682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>7.8140000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>6.1630000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>10.053000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>9.266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <v>9.4819999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>6.7050000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47">
+        <v>5.5620000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <v>7.2140000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50">
+        <v>5.0780000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>7.5894801738525901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52">
+        <v>8.9879999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55">
+        <v>7.0220000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58">
+        <v>7.1020000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62">
+        <v>4.7160000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63">
+        <v>6.9684883830032804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64">
+        <v>6.6289010318191401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65">
+        <v>7.1495064211542898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66">
+        <v>10.395788095384299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67">
+        <v>10.219199399586699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68">
+        <v>5.109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <v>5.8170000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70">
+        <v>10.1383266659945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71">
+        <v>7.1630000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74">
+        <v>6.5510000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75">
+        <v>10.512264426072299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76">
+        <v>8.5960590585639896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78">
+        <v>8.2080000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81">
+        <v>6.5640000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82">
+        <v>6.8330000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84">
+        <v>12.849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85">
+        <v>7.3090000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87">
+        <v>8.452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88">
+        <v>7.8869999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89">
+        <v>9.6120000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90">
+        <v>9.3230000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92">
+        <v>9.5760000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94">
+        <v>4.7380000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95">
+        <v>5.2160000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96">
+        <v>7.4560000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97">
+        <v>8.8884557280691503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99">
+        <v>4.4370000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100">
+        <v>7.7006608993181702</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102">
+        <v>8.5340000000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104">
+        <v>7.2017554446115701</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105">
+        <v>7.3218529879538403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106">
+        <v>7.6731051061706799</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107">
+        <v>8.5604906854877907</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108">
+        <v>6.4649999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109">
+        <v>7.2237867777045004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111">
+        <v>7.234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114">
+        <v>4.843</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115">
+        <v>4.7759999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119">
+        <v>7.5730000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120">
+        <v>3.8639999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123">
+        <v>5.4690000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125">
+        <v>5.9969999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126">
+        <v>6.3289999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129">
+        <v>2.6960000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130">
+        <v>6.2521942799733301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131">
+        <v>6.4340000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132">
+        <v>4.3559999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133">
+        <v>7.5380000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134">
+        <v>5.0949999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135">
+        <v>7.2050000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136">
+        <v>6.3209842016856097</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137">
+        <v>7.2874728937867896</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138">
+        <v>7.7965198710750299</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140">
+        <v>6.6509999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141">
+        <v>7.1632170431539199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142">
+        <v>7.3077468959491396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143">
+        <v>14.246</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144">
+        <v>7.4809248576704404</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148">
+        <v>3.9390000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153">
+        <v>6.0549999999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154">
+        <v>2.8140000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155">
+        <v>4.9044940348447401</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158">
+        <v>7.2538748375430098</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159">
+        <v>10.051</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160">
+        <v>9.6859999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162">
+        <v>8.1989999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163">
+        <v>5.2035210275018997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164">
+        <v>10.682</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165">
+        <v>6.3159999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167">
+        <v>8.5440000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168">
+        <v>7.2220000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170">
+        <v>6.5970000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172">
+        <v>8.5783374592589805</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173">
+        <v>8.0570000000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175">
+        <v>8.2680000000000007</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177">
+        <v>5.0609999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180">
+        <v>6.3609999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183">
+        <v>8.5794670040314092</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184">
+        <v>2.4359999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185">
+        <v>7.2878540251775696</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186">
+        <v>6.9420000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187">
+        <v>5.0759999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188">
+        <v>5.5030000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189">
+        <v>5.8730000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191">
+        <v>7.4269999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193">
+        <v>8.6264484864501707</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194">
+        <v>9.0630000000000006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195">
+        <v>9.0879999999999992</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197">
+        <v>5.4980000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198">
+        <v>3.4609999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199">
+        <v>6.2940290330608697</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200">
+        <v>9.5546442638363107</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201">
+        <v>5.649</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202">
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205">
+        <v>5.2080000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206">
+        <v>7.0094416304835603</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207">
+        <v>3.472</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208">
+        <v>7.1879999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209">
+        <v>5.7160000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211">
+        <v>4.2519999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212">
+        <v>11.744999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215">
+        <v>10.855</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217">
+        <v>8.5890467410282305</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218">
+        <v>10.459</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219">
+        <v>8.5890387505016204</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220">
+        <v>7.2834484725629096</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221">
+        <v>4.8280000000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222">
+        <v>7.335</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226">
+        <v>9.3759999999999994</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229">
+        <v>5.3730000000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231">
+        <v>12.103999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232">
+        <v>6.94215668497033</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233">
+        <v>10.4598066630505</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234">
+        <v>8.4459999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235">
+        <v>7.6660000000000004</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236">
+        <v>4.8559999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237">
+        <v>7.0449999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238">
+        <v>6.2561051073639602</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239">
+        <v>5.9950000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240">
+        <v>5.2245623146813402</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241">
+        <v>7.1520000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242">
+        <v>7.0094416304835603</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243">
+        <v>8.5890387505016204</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244">
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245">
+        <v>6.2619999999999996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246">
+        <v>5.4119999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248">
+        <v>6.4189999999999996</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249">
+        <v>6.5540000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251">
+        <v>7.3720172963916202</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252">
+        <v>9.4670000000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253">
+        <v>8.6780000000000008</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255">
+        <v>9.2629999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256">
+        <v>6.9820000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259">
+        <v>6.3170000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260">
+        <v>5.266</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261">
+        <v>7.5575233330781399</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262">
+        <v>5.2389999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264">
+        <v>5.9829999999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265">
+        <v>9.4350000000000005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266">
+        <v>6.4560000000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267">
+        <v>7.883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>